--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Tnfsf12-Tnfrsf12a.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Tnfsf12-Tnfrsf12a.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>5.742066</v>
+        <v>6.221859333333334</v>
       </c>
       <c r="H2">
-        <v>17.226198</v>
+        <v>18.665578</v>
       </c>
       <c r="I2">
-        <v>0.2447097919555983</v>
+        <v>0.266168288812213</v>
       </c>
       <c r="J2">
-        <v>0.2447097919555983</v>
+        <v>0.2661682888122131</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.765403666666667</v>
+        <v>4.886264000000001</v>
       </c>
       <c r="N2">
-        <v>14.296211</v>
+        <v>14.658792</v>
       </c>
       <c r="O2">
-        <v>0.08284483696442199</v>
+        <v>0.0862906144189077</v>
       </c>
       <c r="P2">
-        <v>0.08284483696442199</v>
+        <v>0.0862906144189077</v>
       </c>
       <c r="Q2">
-        <v>27.363262370642</v>
+        <v>30.40164727353067</v>
       </c>
       <c r="R2">
-        <v>246.269361335778</v>
+        <v>273.614825461776</v>
       </c>
       <c r="S2">
-        <v>0.02027294281815916</v>
+        <v>0.02296782518043514</v>
       </c>
       <c r="T2">
-        <v>0.02027294281815916</v>
+        <v>0.02296782518043515</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>5.742066</v>
+        <v>6.221859333333334</v>
       </c>
       <c r="H3">
-        <v>17.226198</v>
+        <v>18.665578</v>
       </c>
       <c r="I3">
-        <v>0.2447097919555983</v>
+        <v>0.266168288812213</v>
       </c>
       <c r="J3">
-        <v>0.2447097919555983</v>
+        <v>0.2661682888122131</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,25 +620,25 @@
         <v>16.336489</v>
       </c>
       <c r="N3">
-        <v>49.009467</v>
+        <v>49.00946700000001</v>
       </c>
       <c r="O3">
-        <v>0.2840040136038997</v>
+        <v>0.2884996949116395</v>
       </c>
       <c r="P3">
-        <v>0.2840040136038997</v>
+        <v>0.2884996949116395</v>
       </c>
       <c r="Q3">
-        <v>93.805198046274</v>
+        <v>101.6433365585474</v>
       </c>
       <c r="R3">
-        <v>844.246782416466</v>
+        <v>914.7900290269262</v>
       </c>
       <c r="S3">
-        <v>0.0694985630835652</v>
+        <v>0.0767894701174766</v>
       </c>
       <c r="T3">
-        <v>0.06949856308356518</v>
+        <v>0.07678947011747662</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>5.742066</v>
+        <v>6.221859333333334</v>
       </c>
       <c r="H4">
-        <v>17.226198</v>
+        <v>18.665578</v>
       </c>
       <c r="I4">
-        <v>0.2447097919555983</v>
+        <v>0.266168288812213</v>
       </c>
       <c r="J4">
-        <v>0.2447097919555983</v>
+        <v>0.2661682888122131</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>26.358033</v>
+        <v>28.376397</v>
       </c>
       <c r="N4">
-        <v>79.074099</v>
+        <v>85.12919100000001</v>
       </c>
       <c r="O4">
-        <v>0.4582249688231074</v>
+        <v>0.5011224796950899</v>
       </c>
       <c r="P4">
-        <v>0.4582249688231074</v>
+        <v>0.5011224796950899</v>
       </c>
       <c r="Q4">
-        <v>151.349565116178</v>
+        <v>176.553950520822</v>
       </c>
       <c r="R4">
-        <v>1362.146086045602</v>
+        <v>1588.985554687398</v>
       </c>
       <c r="S4">
-        <v>0.1121321367895631</v>
+        <v>0.1333829129057751</v>
       </c>
       <c r="T4">
-        <v>0.1121321367895631</v>
+        <v>0.1333829129057751</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>5.742066</v>
+        <v>6.221859333333334</v>
       </c>
       <c r="H5">
-        <v>17.226198</v>
+        <v>18.665578</v>
       </c>
       <c r="I5">
-        <v>0.2447097919555983</v>
+        <v>0.266168288812213</v>
       </c>
       <c r="J5">
-        <v>0.2447097919555983</v>
+        <v>0.2661682888122131</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>10.06211</v>
+        <v>7.026521666666667</v>
       </c>
       <c r="N5">
-        <v>30.18633</v>
+        <v>21.079565</v>
       </c>
       <c r="O5">
-        <v>0.174926180608571</v>
+        <v>0.1240872109743628</v>
       </c>
       <c r="P5">
-        <v>0.1749261806085711</v>
+        <v>0.1240872109743628</v>
       </c>
       <c r="Q5">
-        <v>57.77729971925999</v>
+        <v>43.71802941261889</v>
       </c>
       <c r="R5">
-        <v>519.99569747334</v>
+        <v>393.46226471357</v>
       </c>
       <c r="S5">
-        <v>0.04280614926431083</v>
+        <v>0.03302808060852622</v>
       </c>
       <c r="T5">
-        <v>0.04280614926431084</v>
+        <v>0.03302808060852622</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,16 +785,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>6.924657666666667</v>
+        <v>6.924657666666666</v>
       </c>
       <c r="H6">
         <v>20.773973</v>
       </c>
       <c r="I6">
-        <v>0.2951083350441703</v>
+        <v>0.2962336791949928</v>
       </c>
       <c r="J6">
-        <v>0.2951083350441703</v>
+        <v>0.2962336791949928</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>4.765403666666667</v>
+        <v>4.886264000000001</v>
       </c>
       <c r="N6">
-        <v>14.296211</v>
+        <v>14.658792</v>
       </c>
       <c r="O6">
-        <v>0.08284483696442199</v>
+        <v>0.0862906144189077</v>
       </c>
       <c r="P6">
-        <v>0.08284483696442199</v>
+        <v>0.0862906144189077</v>
       </c>
       <c r="Q6">
-        <v>32.99878903514478</v>
+        <v>33.83570546895734</v>
       </c>
       <c r="R6">
-        <v>296.989101316303</v>
+        <v>304.521349220616</v>
       </c>
       <c r="S6">
-        <v>0.02444820190357631</v>
+        <v>0.02556218618930952</v>
       </c>
       <c r="T6">
-        <v>0.02444820190357631</v>
+        <v>0.02556218618930953</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,16 +847,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>6.924657666666667</v>
+        <v>6.924657666666666</v>
       </c>
       <c r="H7">
         <v>20.773973</v>
       </c>
       <c r="I7">
-        <v>0.2951083350441703</v>
+        <v>0.2962336791949928</v>
       </c>
       <c r="J7">
-        <v>0.2951083350441703</v>
+        <v>0.2962336791949928</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,13 +868,13 @@
         <v>16.336489</v>
       </c>
       <c r="N7">
-        <v>49.009467</v>
+        <v>49.00946700000001</v>
       </c>
       <c r="O7">
-        <v>0.2840040136038997</v>
+        <v>0.2884996949116395</v>
       </c>
       <c r="P7">
-        <v>0.2840040136038997</v>
+        <v>0.2884996949116395</v>
       </c>
       <c r="Q7">
         <v>113.1245938002657</v>
@@ -883,10 +883,10 @@
         <v>1018.121344202391</v>
       </c>
       <c r="S7">
-        <v>0.08381195160050872</v>
+        <v>0.08546332607030789</v>
       </c>
       <c r="T7">
-        <v>0.08381195160050871</v>
+        <v>0.0854633260703079</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,16 +909,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>6.924657666666667</v>
+        <v>6.924657666666666</v>
       </c>
       <c r="H8">
         <v>20.773973</v>
       </c>
       <c r="I8">
-        <v>0.2951083350441703</v>
+        <v>0.2962336791949928</v>
       </c>
       <c r="J8">
-        <v>0.2951083350441703</v>
+        <v>0.2962336791949928</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>26.358033</v>
+        <v>28.376397</v>
       </c>
       <c r="N8">
-        <v>79.074099</v>
+        <v>85.12919100000001</v>
       </c>
       <c r="O8">
-        <v>0.4582249688231074</v>
+        <v>0.5011224796950899</v>
       </c>
       <c r="P8">
-        <v>0.4582249688231074</v>
+        <v>0.5011224796950899</v>
       </c>
       <c r="Q8">
-        <v>182.520355291703</v>
+        <v>196.496835038427</v>
       </c>
       <c r="R8">
-        <v>1642.683197625327</v>
+        <v>1768.471515345843</v>
       </c>
       <c r="S8">
-        <v>0.1352260076250541</v>
+        <v>0.1484493558873946</v>
       </c>
       <c r="T8">
-        <v>0.135226007625054</v>
+        <v>0.1484493558873946</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,16 +971,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>6.924657666666667</v>
+        <v>6.924657666666666</v>
       </c>
       <c r="H9">
         <v>20.773973</v>
       </c>
       <c r="I9">
-        <v>0.2951083350441703</v>
+        <v>0.2962336791949928</v>
       </c>
       <c r="J9">
-        <v>0.2951083350441703</v>
+        <v>0.2962336791949928</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>10.06211</v>
+        <v>7.026521666666667</v>
       </c>
       <c r="N9">
-        <v>30.18633</v>
+        <v>21.079565</v>
       </c>
       <c r="O9">
-        <v>0.174926180608571</v>
+        <v>0.1240872109743628</v>
       </c>
       <c r="P9">
-        <v>0.1749261806085711</v>
+        <v>0.1240872109743628</v>
       </c>
       <c r="Q9">
-        <v>69.67666715434333</v>
+        <v>48.65625712908277</v>
       </c>
       <c r="R9">
-        <v>627.09000438909</v>
+        <v>437.9063141617449</v>
       </c>
       <c r="S9">
-        <v>0.05162217391503123</v>
+        <v>0.03675881104798078</v>
       </c>
       <c r="T9">
-        <v>0.05162217391503123</v>
+        <v>0.03675881104798078</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.180106333333333</v>
+        <v>2.674426</v>
       </c>
       <c r="H10">
-        <v>6.540318999999999</v>
+        <v>8.023277999999999</v>
       </c>
       <c r="I10">
-        <v>0.09290965434237122</v>
+        <v>0.1144107177353241</v>
       </c>
       <c r="J10">
-        <v>0.09290965434237122</v>
+        <v>0.1144107177353241</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>4.765403666666667</v>
+        <v>4.886264000000001</v>
       </c>
       <c r="N10">
-        <v>14.296211</v>
+        <v>14.658792</v>
       </c>
       <c r="O10">
-        <v>0.08284483696442199</v>
+        <v>0.0862906144189077</v>
       </c>
       <c r="P10">
-        <v>0.08284483696442199</v>
+        <v>0.0862906144189077</v>
       </c>
       <c r="Q10">
-        <v>10.38908671458989</v>
+        <v>13.067951484464</v>
       </c>
       <c r="R10">
-        <v>93.50178043130899</v>
+        <v>117.611563360176</v>
       </c>
       <c r="S10">
-        <v>0.007697085166414546</v>
+        <v>0.009872571129489336</v>
       </c>
       <c r="T10">
-        <v>0.007697085166414546</v>
+        <v>0.009872571129489338</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>2.180106333333333</v>
+        <v>2.674426</v>
       </c>
       <c r="H11">
-        <v>6.540318999999999</v>
+        <v>8.023277999999999</v>
       </c>
       <c r="I11">
-        <v>0.09290965434237122</v>
+        <v>0.1144107177353241</v>
       </c>
       <c r="J11">
-        <v>0.09290965434237122</v>
+        <v>0.1144107177353241</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,25 +1116,25 @@
         <v>16.336489</v>
       </c>
       <c r="N11">
-        <v>49.009467</v>
+        <v>49.00946700000001</v>
       </c>
       <c r="O11">
-        <v>0.2840040136038997</v>
+        <v>0.2884996949116395</v>
       </c>
       <c r="P11">
-        <v>0.2840040136038997</v>
+        <v>0.2884996949116395</v>
       </c>
       <c r="Q11">
-        <v>35.61528313333033</v>
+        <v>43.69073093031401</v>
       </c>
       <c r="R11">
-        <v>320.5375481999729</v>
+        <v>393.2165783728261</v>
       </c>
       <c r="S11">
-        <v>0.02638671473578441</v>
+        <v>0.03300745716126269</v>
       </c>
       <c r="T11">
-        <v>0.02638671473578441</v>
+        <v>0.0330074571612627</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2.180106333333333</v>
+        <v>2.674426</v>
       </c>
       <c r="H12">
-        <v>6.540318999999999</v>
+        <v>8.023277999999999</v>
       </c>
       <c r="I12">
-        <v>0.09290965434237122</v>
+        <v>0.1144107177353241</v>
       </c>
       <c r="J12">
-        <v>0.09290965434237122</v>
+        <v>0.1144107177353241</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>26.358033</v>
+        <v>28.376397</v>
       </c>
       <c r="N12">
-        <v>79.074099</v>
+        <v>85.12919100000001</v>
       </c>
       <c r="O12">
-        <v>0.4582249688231074</v>
+        <v>0.5011224796950899</v>
       </c>
       <c r="P12">
-        <v>0.4582249688231074</v>
+        <v>0.5011224796950899</v>
       </c>
       <c r="Q12">
-        <v>57.463314677509</v>
+        <v>75.89057392312201</v>
       </c>
       <c r="R12">
-        <v>517.169832097581</v>
+        <v>683.0151653080979</v>
       </c>
       <c r="S12">
-        <v>0.04257352346439874</v>
+        <v>0.05733378257522061</v>
       </c>
       <c r="T12">
-        <v>0.04257352346439874</v>
+        <v>0.05733378257522062</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>2.180106333333333</v>
+        <v>2.674426</v>
       </c>
       <c r="H13">
-        <v>6.540318999999999</v>
+        <v>8.023277999999999</v>
       </c>
       <c r="I13">
-        <v>0.09290965434237122</v>
+        <v>0.1144107177353241</v>
       </c>
       <c r="J13">
-        <v>0.09290965434237122</v>
+        <v>0.1144107177353241</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>10.06211</v>
+        <v>7.026521666666667</v>
       </c>
       <c r="N13">
-        <v>30.18633</v>
+        <v>21.079565</v>
       </c>
       <c r="O13">
-        <v>0.174926180608571</v>
+        <v>0.1240872109743628</v>
       </c>
       <c r="P13">
-        <v>0.1749261806085711</v>
+        <v>0.1240872109743628</v>
       </c>
       <c r="Q13">
-        <v>21.93646973769666</v>
+        <v>18.79191223489667</v>
       </c>
       <c r="R13">
-        <v>197.42822763927</v>
+        <v>169.12721011407</v>
       </c>
       <c r="S13">
-        <v>0.01625233097577353</v>
+        <v>0.01419690686935143</v>
       </c>
       <c r="T13">
-        <v>0.01625233097577354</v>
+        <v>0.01419690686935143</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>8.617968666666668</v>
+        <v>7.554716666666667</v>
       </c>
       <c r="H14">
-        <v>25.853906</v>
+        <v>22.66415</v>
       </c>
       <c r="I14">
-        <v>0.3672722186578602</v>
+        <v>0.32318731425747</v>
       </c>
       <c r="J14">
-        <v>0.3672722186578602</v>
+        <v>0.32318731425747</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>4.765403666666667</v>
+        <v>4.886264000000001</v>
       </c>
       <c r="N14">
-        <v>14.296211</v>
+        <v>14.658792</v>
       </c>
       <c r="O14">
-        <v>0.08284483696442199</v>
+        <v>0.0862906144189077</v>
       </c>
       <c r="P14">
-        <v>0.08284483696442199</v>
+        <v>0.0862906144189077</v>
       </c>
       <c r="Q14">
-        <v>41.06809948335179</v>
+        <v>36.91434007853334</v>
       </c>
       <c r="R14">
-        <v>369.612895350166</v>
+        <v>332.2290607068001</v>
       </c>
       <c r="S14">
-        <v>0.03042660707627198</v>
+        <v>0.0278880319196737</v>
       </c>
       <c r="T14">
-        <v>0.03042660707627198</v>
+        <v>0.0278880319196737</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>8.617968666666668</v>
+        <v>7.554716666666667</v>
       </c>
       <c r="H15">
-        <v>25.853906</v>
+        <v>22.66415</v>
       </c>
       <c r="I15">
-        <v>0.3672722186578602</v>
+        <v>0.32318731425747</v>
       </c>
       <c r="J15">
-        <v>0.3672722186578602</v>
+        <v>0.32318731425747</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,25 +1364,25 @@
         <v>16.336489</v>
       </c>
       <c r="N15">
-        <v>49.009467</v>
+        <v>49.00946700000001</v>
       </c>
       <c r="O15">
-        <v>0.2840040136038997</v>
+        <v>0.2884996949116395</v>
       </c>
       <c r="P15">
-        <v>0.2840040136038997</v>
+        <v>0.2884996949116395</v>
       </c>
       <c r="Q15">
-        <v>140.7873503253447</v>
+        <v>123.4175457231167</v>
       </c>
       <c r="R15">
-        <v>1267.086152928102</v>
+        <v>1110.75791150805</v>
       </c>
       <c r="S15">
-        <v>0.1043067841840414</v>
+        <v>0.09323944156259224</v>
       </c>
       <c r="T15">
-        <v>0.1043067841840414</v>
+        <v>0.09323944156259226</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>8.617968666666668</v>
+        <v>7.554716666666667</v>
       </c>
       <c r="H16">
-        <v>25.853906</v>
+        <v>22.66415</v>
       </c>
       <c r="I16">
-        <v>0.3672722186578602</v>
+        <v>0.32318731425747</v>
       </c>
       <c r="J16">
-        <v>0.3672722186578602</v>
+        <v>0.32318731425747</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>26.358033</v>
+        <v>28.376397</v>
       </c>
       <c r="N16">
-        <v>79.074099</v>
+        <v>85.12919100000001</v>
       </c>
       <c r="O16">
-        <v>0.4582249688231074</v>
+        <v>0.5011224796950899</v>
       </c>
       <c r="P16">
-        <v>0.4582249688231074</v>
+        <v>0.5011224796950899</v>
       </c>
       <c r="Q16">
-        <v>227.1527025089661</v>
+        <v>214.37563935585</v>
       </c>
       <c r="R16">
-        <v>2044.374322580694</v>
+        <v>1929.38075420265</v>
       </c>
       <c r="S16">
-        <v>0.1682933009440915</v>
+        <v>0.1619564283266997</v>
       </c>
       <c r="T16">
-        <v>0.1682933009440915</v>
+        <v>0.1619564283266997</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>8.617968666666668</v>
+        <v>7.554716666666667</v>
       </c>
       <c r="H17">
-        <v>25.853906</v>
+        <v>22.66415</v>
       </c>
       <c r="I17">
-        <v>0.3672722186578602</v>
+        <v>0.32318731425747</v>
       </c>
       <c r="J17">
-        <v>0.3672722186578602</v>
+        <v>0.32318731425747</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>10.06211</v>
+        <v>7.026521666666667</v>
       </c>
       <c r="N17">
-        <v>30.18633</v>
+        <v>21.079565</v>
       </c>
       <c r="O17">
-        <v>0.174926180608571</v>
+        <v>0.1240872109743628</v>
       </c>
       <c r="P17">
-        <v>0.1749261806085711</v>
+        <v>0.1240872109743628</v>
       </c>
       <c r="Q17">
-        <v>86.71494870055334</v>
+        <v>53.08338034386111</v>
       </c>
       <c r="R17">
-        <v>780.43453830498</v>
+        <v>477.75042309475</v>
       </c>
       <c r="S17">
-        <v>0.06424552645345545</v>
+        <v>0.04010341244850438</v>
       </c>
       <c r="T17">
-        <v>0.06424552645345546</v>
+        <v>0.04010341244850438</v>
       </c>
     </row>
   </sheetData>
